--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27848</v>
+        <v>27559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52233</v>
+        <v>51016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05577949505257428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04018498266589036</v>
+        <v>0.03976843458532873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07537327490710719</v>
+        <v>0.07361741788158985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>35657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24844</v>
+        <v>25395</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49387</v>
+        <v>49412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0517998882837001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03609186268060215</v>
+        <v>0.03689294999392207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07174612193868042</v>
+        <v>0.07178255098137187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>74311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59267</v>
+        <v>59416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91490</v>
+        <v>92493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05379637972413377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04290531879102041</v>
+        <v>0.0430130975365738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06623227268905671</v>
+        <v>0.06695851378364953</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>654339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>640761</v>
+        <v>641978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665146</v>
+        <v>665435</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9442205049474257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9246267250928929</v>
+        <v>0.9263825821184102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9598150173341098</v>
+        <v>0.9602315654146713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>661</v>
@@ -836,19 +836,19 @@
         <v>652694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638964</v>
+        <v>638939</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663507</v>
+        <v>662956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9482001117162999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.92825387806132</v>
+        <v>0.9282174490186283</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9639081373193978</v>
+        <v>0.963107050006078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1302</v>
@@ -857,19 +857,19 @@
         <v>1307034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289855</v>
+        <v>1288852</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1322078</v>
+        <v>1321929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9462036202758662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9337677273109434</v>
+        <v>0.9330414862163505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9570946812089796</v>
+        <v>0.9569869024634262</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>57908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44878</v>
+        <v>43641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73129</v>
+        <v>73313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06020817049388109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04666009120363736</v>
+        <v>0.04537392618233237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07603311368577187</v>
+        <v>0.07622477544502852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -982,19 +982,19 @@
         <v>52249</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39289</v>
+        <v>40059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67917</v>
+        <v>67885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05395406358563782</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04057168539276173</v>
+        <v>0.04136679214939213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07013392534691977</v>
+        <v>0.07010079089094258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -1003,19 +1003,19 @@
         <v>110157</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90272</v>
+        <v>92273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133017</v>
+        <v>131184</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05707043581353599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04676827257581544</v>
+        <v>0.04780494540449805</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06891404957880279</v>
+        <v>0.0679639429247236</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>903892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888671</v>
+        <v>888487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>916922</v>
+        <v>918159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9397918295061189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9239668863142282</v>
+        <v>0.9237752245549715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9533399087963627</v>
+        <v>0.9546260738176677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>859</v>
@@ -1053,19 +1053,19 @@
         <v>916144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>900476</v>
+        <v>900508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>929104</v>
+        <v>928334</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9460459364143622</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9298660746530804</v>
+        <v>0.9298992091090575</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9594283146072383</v>
+        <v>0.958633207850608</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1699</v>
@@ -1074,19 +1074,19 @@
         <v>1820036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1797176</v>
+        <v>1799009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1839921</v>
+        <v>1837920</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.942929564186464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9310859504211971</v>
+        <v>0.9320360570752764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9532317274241845</v>
+        <v>0.9521950545955019</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27064</v>
+        <v>26938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50709</v>
+        <v>50837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05427895141279459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03988805060507424</v>
+        <v>0.03970173461526074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07473528837282237</v>
+        <v>0.07492436023388641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1199,19 +1199,19 @@
         <v>33661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23963</v>
+        <v>23696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47135</v>
+        <v>45870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04922345960151692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03504119715433809</v>
+        <v>0.03465147129547453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06892698357286373</v>
+        <v>0.06707645169147634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1220,19 +1220,19 @@
         <v>70490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55605</v>
+        <v>53848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88467</v>
+        <v>87346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05174131212587653</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04081547678920962</v>
+        <v>0.0395255848682734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06493737298926187</v>
+        <v>0.06411418757697381</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>641680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>627800</v>
+        <v>627672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651445</v>
+        <v>651571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9457210485872054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9252647116271776</v>
+        <v>0.9250756397661136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9601119493949258</v>
+        <v>0.9602982653847393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -1270,19 +1270,19 @@
         <v>650180</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636706</v>
+        <v>637971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659878</v>
+        <v>660145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.950776540398483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9310730164271368</v>
+        <v>0.9329235483085238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9649588028456619</v>
+        <v>0.9653485287045256</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1267</v>
@@ -1291,19 +1291,19 @@
         <v>1291860</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1273883</v>
+        <v>1275004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1306745</v>
+        <v>1308502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9482586878741235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9350626270107381</v>
+        <v>0.9358858124230262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9591845232107903</v>
+        <v>0.9604744151317266</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>43915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33589</v>
+        <v>33795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58559</v>
+        <v>57790</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04660810515532723</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0356488834652953</v>
+        <v>0.03586763252389182</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0621501378787011</v>
+        <v>0.06133329159130155</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1416,19 +1416,19 @@
         <v>57378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43663</v>
+        <v>43301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73329</v>
+        <v>74178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05524448897285056</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04203960973765067</v>
+        <v>0.04169087126797578</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0706026633476375</v>
+        <v>0.07142052690312992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -1437,19 +1437,19 @@
         <v>101293</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82510</v>
+        <v>82101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122434</v>
+        <v>121884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05113642577431861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04165399239266493</v>
+        <v>0.04144778346337183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06180950815536257</v>
+        <v>0.06153171804433401</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>898307</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>883663</v>
+        <v>884432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>908633</v>
+        <v>908427</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9533918948446728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9378498621212988</v>
+        <v>0.9386667084086983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9643511165347046</v>
+        <v>0.9641323674761082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>942</v>
@@ -1487,19 +1487,19 @@
         <v>981234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>965283</v>
+        <v>964434</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>994949</v>
+        <v>995311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9447555110271494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9293973366523632</v>
+        <v>0.9285794730968701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9579603902623497</v>
+        <v>0.9583091287320241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1886</v>
@@ -1508,19 +1508,19 @@
         <v>1879541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858400</v>
+        <v>1858950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1898324</v>
+        <v>1898733</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9488635742256813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9381904918446373</v>
+        <v>0.9384682819556658</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.958346007607335</v>
+        <v>0.9585522165366281</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>177307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05413086828946344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -1633,19 +1633,19 @@
         <v>178944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05295454841310784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -1654,19 +1654,19 @@
         <v>356251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05353354556355526</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3098218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3072518</v>
+        <v>3070386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3121527</v>
+        <v>3123279</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9458691317105365</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.938023093051536</v>
+        <v>0.937372115573873</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9529852623909761</v>
+        <v>0.9535200478999643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3125</v>
@@ -1704,19 +1704,19 @@
         <v>3200253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3172238</v>
+        <v>3167104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3224959</v>
+        <v>3223477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9470454515868921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9387548331280472</v>
+        <v>0.9372357588496124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9543566269771088</v>
+        <v>0.953917964436592</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6154</v>
@@ -1725,19 +1725,19 @@
         <v>6298471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6263981</v>
+        <v>6258629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6335550</v>
+        <v>6334144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9464664544364447</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9412835817050739</v>
+        <v>0.9404793529673322</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9520382129174182</v>
+        <v>0.9518269563635265</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>33597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23626</v>
+        <v>23294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47788</v>
+        <v>47705</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04788771280851405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03367584053120841</v>
+        <v>0.03320225505943709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06811477123170639</v>
+        <v>0.06799633355743707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -2090,19 +2090,19 @@
         <v>39577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28213</v>
+        <v>28833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54526</v>
+        <v>53823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05686291624999934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04053585978672709</v>
+        <v>0.04142578604353915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07834165588000488</v>
+        <v>0.07733129397182303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -2111,19 +2111,19 @@
         <v>73174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58367</v>
+        <v>57232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93467</v>
+        <v>91187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05235742352680474</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04176265003522987</v>
+        <v>0.04095077557807199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06687734698186257</v>
+        <v>0.06524629642286268</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>667982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653791</v>
+        <v>653874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>677953</v>
+        <v>678285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.952112287191486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318852287682939</v>
+        <v>0.9320036664425634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9663241594687917</v>
+        <v>0.9667977449405629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>612</v>
@@ -2161,19 +2161,19 @@
         <v>656430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641481</v>
+        <v>642184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>667794</v>
+        <v>667174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9431370837500006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9216583441199951</v>
+        <v>0.922668706028177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.959464140213273</v>
+        <v>0.9585742139564609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1253</v>
@@ -2182,19 +2182,19 @@
         <v>1324411</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1304118</v>
+        <v>1306398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1339218</v>
+        <v>1340353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9476425764731953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9331226530181373</v>
+        <v>0.9347537035771373</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9582373499647701</v>
+        <v>0.959049224421928</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>49553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36697</v>
+        <v>35806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66120</v>
+        <v>64738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04867934363228457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03605013714365619</v>
+        <v>0.03517468260493117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06495389035269046</v>
+        <v>0.06359658676882271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -2307,19 +2307,19 @@
         <v>50123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36090</v>
+        <v>38208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64615</v>
+        <v>65882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04871197811831041</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03507394535001302</v>
+        <v>0.03713229899804626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06279676914793546</v>
+        <v>0.06402772602854402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -2328,19 +2328,19 @@
         <v>99676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80032</v>
+        <v>80559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121221</v>
+        <v>122600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0486957486516462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03909923379880281</v>
+        <v>0.03935672287162659</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0592218153309749</v>
+        <v>0.05989518838595138</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>968394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>951827</v>
+        <v>953209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>981250</v>
+        <v>982141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9513206563677155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9350461096473091</v>
+        <v>0.9364034132311763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9639498628563438</v>
+        <v>0.9648253173950683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>891</v>
@@ -2378,19 +2378,19 @@
         <v>978835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>964343</v>
+        <v>963076</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992868</v>
+        <v>990750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9512880218816896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9372032308520644</v>
+        <v>0.9359722739714559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9649260546499868</v>
+        <v>0.9628677010019534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1782</v>
@@ -2399,19 +2399,19 @@
         <v>1947229</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1925684</v>
+        <v>1924305</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1966873</v>
+        <v>1966346</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9513042513483538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9407781846690251</v>
+        <v>0.9401048116140482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9609007662011974</v>
+        <v>0.9606432771283733</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>36225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24922</v>
+        <v>26075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50281</v>
+        <v>49490</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04788272206524362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03294155945969979</v>
+        <v>0.03446672429902424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06646187807596952</v>
+        <v>0.06541704144726544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2524,19 +2524,19 @@
         <v>28160</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18245</v>
+        <v>18464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41548</v>
+        <v>40120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0363217409856702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.023533593856125</v>
+        <v>0.02381502968396972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05359039801445808</v>
+        <v>0.05174859332126865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -2545,19 +2545,19 @@
         <v>64385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49684</v>
+        <v>49486</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81289</v>
+        <v>81493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04203147589285842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03243459243007731</v>
+        <v>0.03230492452254827</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05306664655144756</v>
+        <v>0.0532000014841552</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>720313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>706257</v>
+        <v>707048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>731616</v>
+        <v>730463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9521172779347564</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9335381219240305</v>
+        <v>0.9345829585527342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9670584405403005</v>
+        <v>0.9655332757009757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>677</v>
@@ -2595,19 +2595,19 @@
         <v>747128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>733740</v>
+        <v>735168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757043</v>
+        <v>756824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9636782590143298</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9464096019855419</v>
+        <v>0.9482514066787314</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9764664061438743</v>
+        <v>0.9761849703160302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1332</v>
@@ -2616,19 +2616,19 @@
         <v>1467441</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1450537</v>
+        <v>1450333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1482142</v>
+        <v>1482340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9579685241071416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9469333534485529</v>
+        <v>0.9467999985158448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675654075699227</v>
+        <v>0.9676950754774518</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>61113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46964</v>
+        <v>46430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78656</v>
+        <v>77189</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06474288220901636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04975326817206743</v>
+        <v>0.04918706412103965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0833269890623711</v>
+        <v>0.08177335824365581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -2741,19 +2741,19 @@
         <v>52601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39694</v>
+        <v>39849</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69613</v>
+        <v>69098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05014801479522429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03784247619423139</v>
+        <v>0.03799091329066749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06636692379822713</v>
+        <v>0.06587540328868624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -2762,19 +2762,19 @@
         <v>113714</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95767</v>
+        <v>94393</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136940</v>
+        <v>136280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05706104234288012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04805515179414872</v>
+        <v>0.04736553677116157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06871559648086588</v>
+        <v>0.06838411263096296</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>882826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>865283</v>
+        <v>866750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896975</v>
+        <v>897509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9352571177909836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9166730109376289</v>
+        <v>0.9182266417563441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9502467318279324</v>
+        <v>0.9508129358789603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>950</v>
@@ -2812,19 +2812,19 @@
         <v>996316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979304</v>
+        <v>979819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1009223</v>
+        <v>1009068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9498519852047758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9336330762017723</v>
+        <v>0.9341245967113135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9621575238057682</v>
+        <v>0.9620090867093325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1800</v>
@@ -2833,19 +2833,19 @@
         <v>1879142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1855916</v>
+        <v>1856576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897089</v>
+        <v>1898463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9429389576571199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9312844035191341</v>
+        <v>0.9316158873690371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9519448482058513</v>
+        <v>0.9526344632288385</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>180488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05277435208726083</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -2958,19 +2958,19 @@
         <v>170460</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0480282656896413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>325</v>
@@ -2979,19 +2979,19 @@
         <v>350949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05035732682810355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3239515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3212149</v>
+        <v>3210050</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3266017</v>
+        <v>3264570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9472256479127391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.939223915145734</v>
+        <v>0.9386102572714499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.954975025004276</v>
+        <v>0.9545518596629465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3130</v>
@@ -3029,19 +3029,19 @@
         <v>3378710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3352758</v>
+        <v>3349810</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3400708</v>
+        <v>3401234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9519717343103588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9446598557692379</v>
+        <v>0.9438291673552155</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9581698254278285</v>
+        <v>0.958318180355033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6167</v>
@@ -3050,19 +3050,19 @@
         <v>6618224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6580733</v>
+        <v>6578716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6655924</v>
+        <v>6651941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9496426731718964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9442631755769421</v>
+        <v>0.9439737324654277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9550522587293274</v>
+        <v>0.9544806624788207</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>43686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32061</v>
+        <v>32462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58336</v>
+        <v>57221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06473968300105672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04751208147715677</v>
+        <v>0.04810673498776485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08644966124850899</v>
+        <v>0.08479737036816974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3415,19 +3415,19 @@
         <v>45392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32617</v>
+        <v>33132</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60515</v>
+        <v>61985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06746350725201689</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04847617186057551</v>
+        <v>0.04924232056652718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08993978882003729</v>
+        <v>0.09212491996643164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -3436,19 +3436,19 @@
         <v>89078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72787</v>
+        <v>72439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109834</v>
+        <v>110648</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06609961335520531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05401092876767155</v>
+        <v>0.05375254673820849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08150113944214364</v>
+        <v>0.08210538067576426</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>631114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>616464</v>
+        <v>617579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>642739</v>
+        <v>642338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9352603169989433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9135503387514911</v>
+        <v>0.9152026296318303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9524879185228432</v>
+        <v>0.951893265012235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>626</v>
@@ -3486,19 +3486,19 @@
         <v>627447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>612324</v>
+        <v>610854</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>640222</v>
+        <v>639707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9325364927479831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9100602111799637</v>
+        <v>0.9078750800335683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9515238281394252</v>
+        <v>0.9507576794334727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1234</v>
@@ -3507,19 +3507,19 @@
         <v>1258561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1237805</v>
+        <v>1236991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1274852</v>
+        <v>1275200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9339003866447947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9184988605578559</v>
+        <v>0.9178946193242356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9459890712323283</v>
+        <v>0.9462474532617913</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>58419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44812</v>
+        <v>44792</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73781</v>
+        <v>74439</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05713779745552902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04382923339114839</v>
+        <v>0.04380950093606151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07216197243552774</v>
+        <v>0.07280627640682789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3632,19 +3632,19 @@
         <v>53127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39095</v>
+        <v>37552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71191</v>
+        <v>69369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05094107046412381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03748636222273036</v>
+        <v>0.03600697095400643</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06826123106511368</v>
+        <v>0.06651474163678246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3653,19 +3653,19 @@
         <v>111547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88491</v>
+        <v>92395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134944</v>
+        <v>136233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05400870749835351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04284544003788178</v>
+        <v>0.04473580907061189</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06533716083907432</v>
+        <v>0.06596119120602152</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>964012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>948650</v>
+        <v>947992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>977619</v>
+        <v>977639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.942862202544471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9278380275644722</v>
+        <v>0.927193723593172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9561707666088516</v>
+        <v>0.9561904990639385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>933</v>
@@ -3703,19 +3703,19 @@
         <v>989786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>971722</v>
+        <v>973544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1003818</v>
+        <v>1005361</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9490589295358762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9317387689348863</v>
+        <v>0.9334852583632177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9625136377772697</v>
+        <v>0.9639930290459937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1825</v>
@@ -3724,19 +3724,19 @@
         <v>1953797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1930400</v>
+        <v>1929111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1976853</v>
+        <v>1972949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9459912925016465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9346628391609257</v>
+        <v>0.9340388087939787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9571545599621184</v>
+        <v>0.9552641909293883</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>47043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33611</v>
+        <v>35178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61312</v>
+        <v>61682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06193462541760111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04425101768063247</v>
+        <v>0.04631396370165605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.080721777363187</v>
+        <v>0.08120855492638905</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3849,19 +3849,19 @@
         <v>44696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33784</v>
+        <v>33077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62314</v>
+        <v>60145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05693736873701409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04303572633488529</v>
+        <v>0.04213613103607143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07937927621077638</v>
+        <v>0.07661636093796846</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3870,19 +3870,19 @@
         <v>91739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75093</v>
+        <v>73297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113078</v>
+        <v>110569</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05939481283747238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04861741106615056</v>
+        <v>0.04745500316646435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07321023058965825</v>
+        <v>0.07158607725496287</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>712509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>698240</v>
+        <v>697870</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>725941</v>
+        <v>724374</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9380653745823989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9192782226368131</v>
+        <v>0.918791445073611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9557489823193676</v>
+        <v>0.9536860362983441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>697</v>
@@ -3920,19 +3920,19 @@
         <v>740315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722697</v>
+        <v>724866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>751227</v>
+        <v>751934</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.943062631262986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9206207237892238</v>
+        <v>0.9233836390620316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9569642736651148</v>
+        <v>0.9578638689639279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1347</v>
@@ -3941,19 +3941,19 @@
         <v>1452824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1431485</v>
+        <v>1433994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1469470</v>
+        <v>1471266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9406051871625276</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9267897694103416</v>
+        <v>0.928413922745037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9513825889338494</v>
+        <v>0.9525449968335356</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>53952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40651</v>
+        <v>41357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70706</v>
+        <v>70080</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05754443104076754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04335822955397964</v>
+        <v>0.04411099186692766</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07541386183067532</v>
+        <v>0.07474635088621767</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -4066,19 +4066,19 @@
         <v>47768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35146</v>
+        <v>34846</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65019</v>
+        <v>65433</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04576488802396114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03367189275080787</v>
+        <v>0.03338461517033809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06229235919404013</v>
+        <v>0.06268828566379506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -4087,19 +4087,19 @@
         <v>101720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82931</v>
+        <v>83433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122611</v>
+        <v>124048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05133893250260367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04185581432473417</v>
+        <v>0.04210901084487335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06188281053606141</v>
+        <v>0.06260774874855901</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>883615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>866861</v>
+        <v>867487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896916</v>
+        <v>896210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9424555689592324</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9245861381693246</v>
+        <v>0.9252536491137824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9566417704460202</v>
+        <v>0.9558890081330726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>920</v>
@@ -4137,19 +4137,19 @@
         <v>996011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>978760</v>
+        <v>978346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1008633</v>
+        <v>1008933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9542351119760388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9377076408059596</v>
+        <v>0.9373117143362051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.966328107249192</v>
+        <v>0.9666153848296619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1798</v>
@@ -4158,19 +4158,19 @@
         <v>1879626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858735</v>
+        <v>1857298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1898415</v>
+        <v>1897913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9486610674973963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9381171894639386</v>
+        <v>0.937392251251441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9581441856752658</v>
+        <v>0.9578909891551268</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>203100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0598347614364412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -4283,19 +4283,19 @@
         <v>190984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05388117087495888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -4304,19 +4304,19 @@
         <v>394084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05679353370880336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3191250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3161313</v>
+        <v>3163532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3217641</v>
+        <v>3217027</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9401652385635588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9313454783621552</v>
+        <v>0.9319994298858131</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9479401774312365</v>
+        <v>0.9477593117425076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3176</v>
@@ -4354,19 +4354,19 @@
         <v>3353558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3323397</v>
+        <v>3323543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3381563</v>
+        <v>3381119</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9461188291250411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9376097504111398</v>
+        <v>0.9376508042554379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9540198079397972</v>
+        <v>0.9538943404121949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6204</v>
@@ -4375,19 +4375,19 @@
         <v>6544808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6503379</v>
+        <v>6505961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6584807</v>
+        <v>6583163</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9432064662911966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9372358753138644</v>
+        <v>0.9376080277374751</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.948970923083172</v>
+        <v>0.9487339913211917</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>47065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36724</v>
+        <v>35649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60290</v>
+        <v>59242</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06814032482026856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05316884967406701</v>
+        <v>0.05161255349519894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08728662594090461</v>
+        <v>0.08576962468860333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -4740,19 +4740,19 @@
         <v>50729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41045</v>
+        <v>40760</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63853</v>
+        <v>63178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06919673407371699</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05598771811293422</v>
+        <v>0.05559872375339383</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0870982396367582</v>
+        <v>0.08617815006986039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -4761,19 +4761,19 @@
         <v>97794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84594</v>
+        <v>82709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118227</v>
+        <v>115913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06868426018944342</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05941324385698771</v>
+        <v>0.05808945677323615</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0830350656818703</v>
+        <v>0.08140944500033256</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>643645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>630420</v>
+        <v>631468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>653986</v>
+        <v>655061</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9318596751797315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9127133740590957</v>
+        <v>0.9142303753113967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9468311503259329</v>
+        <v>0.9483874465048011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1137</v>
@@ -4811,19 +4811,19 @@
         <v>682384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669260</v>
+        <v>669935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>692068</v>
+        <v>692353</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9308032659262829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9129017603632418</v>
+        <v>0.91382184993014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.944012281887066</v>
+        <v>0.9444012762466062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1800</v>
@@ -4832,19 +4832,19 @@
         <v>1326029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305596</v>
+        <v>1307910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1339229</v>
+        <v>1341114</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9313157398105566</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9169649343181298</v>
+        <v>0.9185905549996675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9405867561430123</v>
+        <v>0.941910543226764</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>42773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32641</v>
+        <v>33134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55557</v>
+        <v>56387</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04077792822808436</v>
+        <v>0.04077792822808435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03111917073629396</v>
+        <v>0.03158875316436967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05296574346372409</v>
+        <v>0.05375693151329931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -4957,19 +4957,19 @@
         <v>49916</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39281</v>
+        <v>40250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61504</v>
+        <v>61543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04664486286926398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03670698524660927</v>
+        <v>0.03761257774933807</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05747383392966338</v>
+        <v>0.05751040316047878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -4978,19 +4978,19 @@
         <v>92689</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77547</v>
+        <v>78191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108494</v>
+        <v>109841</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04374075605498523</v>
+        <v>0.04374075605498522</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03659550732209824</v>
+        <v>0.03689916876556468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05119934061315175</v>
+        <v>0.05183521660653887</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1006144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993360</v>
+        <v>992530</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1016276</v>
+        <v>1015783</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9592220717719158</v>
+        <v>0.9592220717719157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9470342565362758</v>
+        <v>0.9462430684867005</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9688808292637061</v>
+        <v>0.9684112468356303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1430</v>
@@ -5028,19 +5028,19 @@
         <v>1020210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1008622</v>
+        <v>1008583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030845</v>
+        <v>1029876</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9533551371307361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9425261660703361</v>
+        <v>0.942489596839521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9632930147533906</v>
+        <v>0.9623874222506615</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2335</v>
@@ -5049,19 +5049,19 @@
         <v>2026354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2010549</v>
+        <v>2009202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2041496</v>
+        <v>2040852</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9562592439450148</v>
+        <v>0.9562592439450146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9488006593868483</v>
+        <v>0.9481647833934609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9634044926779016</v>
+        <v>0.9631008312344354</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>51204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39140</v>
+        <v>38748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66504</v>
+        <v>65007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06383900334091357</v>
+        <v>0.06383900334091358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04879724241069875</v>
+        <v>0.04830865495578263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08291392081444031</v>
+        <v>0.08104710120070939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -5174,19 +5174,19 @@
         <v>35407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26922</v>
+        <v>26133</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45591</v>
+        <v>45020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04362259134225462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03316954132028754</v>
+        <v>0.03219688325732263</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05616959457414674</v>
+        <v>0.05546624805627901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -5195,19 +5195,19 @@
         <v>86611</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72421</v>
+        <v>70977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107047</v>
+        <v>104771</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05367080848671285</v>
+        <v>0.05367080848671284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0448776455240342</v>
+        <v>0.04398275950755007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06633458421200976</v>
+        <v>0.0649237199271066</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>750882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>735582</v>
+        <v>737079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>762946</v>
+        <v>763338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9361609966590864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9170860791855597</v>
+        <v>0.9189528987992904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9512027575893011</v>
+        <v>0.951691345044217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>993</v>
@@ -5245,19 +5245,19 @@
         <v>776256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>766072</v>
+        <v>766643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>784741</v>
+        <v>785530</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9563774086577453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438304054258532</v>
+        <v>0.9445337519437211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9668304586797123</v>
+        <v>0.9678031167426773</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1612</v>
@@ -5266,19 +5266,19 @@
         <v>1527137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506701</v>
+        <v>1508977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1541327</v>
+        <v>1542771</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.946329191513287</v>
+        <v>0.9463291915132871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9336654157879898</v>
+        <v>0.9350762800728935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9551223544759657</v>
+        <v>0.9560172404924502</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>63191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51291</v>
+        <v>50498</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77935</v>
+        <v>78351</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06382539808161833</v>
+        <v>0.06382539808161831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05180585918018641</v>
+        <v>0.05100516936834439</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07871724827785048</v>
+        <v>0.07913782975398226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -5391,19 +5391,19 @@
         <v>62794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51165</v>
+        <v>51303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75400</v>
+        <v>74812</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05621527510525261</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04580450626577064</v>
+        <v>0.04592824158920174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06750045216385295</v>
+        <v>0.06697354004909269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -5412,19 +5412,19 @@
         <v>125985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108935</v>
+        <v>108120</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144714</v>
+        <v>143325</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05979105254996396</v>
+        <v>0.05979105254996399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05169900468518777</v>
+        <v>0.0513126030322399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06867959960266362</v>
+        <v>0.06802041679884492</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>926871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912127</v>
+        <v>911711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938771</v>
+        <v>939564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9361746019183818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9212827517221495</v>
+        <v>0.9208621702460178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9481941408198137</v>
+        <v>0.9489948306316557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1454</v>
@@ -5462,19 +5462,19 @@
         <v>1054237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1041631</v>
+        <v>1042219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1065866</v>
+        <v>1065728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9437847248947474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.932499547836147</v>
+        <v>0.9330264599509075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9541954937342293</v>
+        <v>0.9540717584107984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2372</v>
@@ -5483,19 +5483,19 @@
         <v>1981108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1962379</v>
+        <v>1963768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1998158</v>
+        <v>1998973</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.940208947450036</v>
+        <v>0.9402089474500361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9313204003973358</v>
+        <v>0.9319795832011553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9483009953148119</v>
+        <v>0.9486873969677606</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>204233</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0578273898244307</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -5608,19 +5608,19 @@
         <v>198846</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>615</v>
@@ -5629,19 +5629,19 @@
         <v>403079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05549222081429454</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3327542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3301953</v>
+        <v>3300517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3351906</v>
+        <v>3350357</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9421726101755693</v>
+        <v>0.9421726101755694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.934927311309696</v>
+        <v>0.9345207385488676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.949071224392481</v>
+        <v>0.9486327634894454</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5014</v>
@@ -5679,19 +5679,19 @@
         <v>3533087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3510256</v>
+        <v>3510893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3553320</v>
+        <v>3555320</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9467177038926059</v>
+        <v>0.946717703892606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9405999192150404</v>
+        <v>0.9407705230064159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9521391548160925</v>
+        <v>0.952675184271444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8119</v>
@@ -5700,19 +5700,19 @@
         <v>6860628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6825583</v>
+        <v>6826188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6895884</v>
+        <v>6893104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9445077791857055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.939683158074592</v>
+        <v>0.9397663757710191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9493614848426271</v>
+        <v>0.9489787547435362</v>
       </c>
     </row>
     <row r="18">
